--- a/biology/Médecine/1,2-Dipalmitoylphosphatidylcholine/1,2-Dipalmitoylphosphatidylcholine.xlsx
+++ b/biology/Médecine/1,2-Dipalmitoylphosphatidylcholine/1,2-Dipalmitoylphosphatidylcholine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La 1,2-dipalmitoylphosphatidylcholine (DPPC) est un phospholipide appartenant à la classe des phosphatidylcholines dont les deux groupes acyle sont deux résidus d'acide palmitique en positions 1 et 2 du résidu de glycérol : c'est une exception à la règle qui veut que les phospholipides biologiques portent un acide gras saturé en position 1 et un acide gras insaturé en position 2.
 La 1,2-dipalmitoylphosphatidylcholine est le principal constituant du surfactant pulmonaire (synthèse à la 34ème semaines d'aménorrhée chez le fœtus) et le seul tensioactif des alvéoles pulmonaires capable de réduire la tension superficielle (tension de surface) presque à néant pour éviter le collapsus. On l'utilise également dans le cadre de recherches sur les liposomes, les bicouches lipidiques et la modélisation des membranes biologiques.
-On pense que la DPPC est synthétisée à partir d'une lysophosphatidylcholine par une lysophosphatidylcholine acyltransférase, dont la nature exacte n'a cependant pas encore été précisée[2].
+On pense que la DPPC est synthétisée à partir d'une lysophosphatidylcholine par une lysophosphatidylcholine acyltransférase, dont la nature exacte n'a cependant pas encore été précisée.
 </t>
         </is>
       </c>
